--- a/medicine/Hématologie/Thrombopoïétine/Thrombopoïétine.xlsx
+++ b/medicine/Hématologie/Thrombopoïétine/Thrombopoïétine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thrombopo%C3%AF%C3%A9tine</t>
+          <t>Thrombopoïétine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thrombopoïétine (TPO) est une hormone qui stimule la formation de plaquettes sanguines et la prolifération de leurs précurseurs (les mégacaryocytes). 
 Elle est synthétisée par le foie et les reins, la moelle hématopoïétique et la rate. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thrombopo%C3%AF%C3%A9tine</t>
+          <t>Thrombopoïétine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un facteur humoral permettant l'augmentation du nombre de plaquettes a été mis en évidence dans les années 1950, recevant le nom de thrombopoïétine[1]. Ce facteur est identifié en 1994 comme le ligand aux récepteurs c-Mpl
-Le terme a été proposé en 1994[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un facteur humoral permettant l'augmentation du nombre de plaquettes a été mis en évidence dans les années 1950, recevant le nom de thrombopoïétine. Ce facteur est identifié en 1994 comme le ligand aux récepteurs c-Mpl
+Le terme a été proposé en 1994.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thrombopo%C3%AF%C3%A9tine</t>
+          <t>Thrombopoïétine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Utilisation médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première génération de protéines recombinantes montre son efficacité dans les cas de thrombopénies[3].Ces protéines étaient cependant particulièrement immunogènes, entraînant la formation d'anticorps dirigés contre la thrombopoïétine native et provoquant ainsi, de manière paradoxale, une baisse du nombre des plaquettes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première génération de protéines recombinantes montre son efficacité dans les cas de thrombopénies.Ces protéines étaient cependant particulièrement immunogènes, entraînant la formation d'anticorps dirigés contre la thrombopoïétine native et provoquant ainsi, de manière paradoxale, une baisse du nombre des plaquettes.
 Depuis, deux molécules structurellement différentes de la thrombopoïétine native, mais agissant sur le même récepteur, ont été développées, le romiplostim et l'eltrombopag.
 </t>
         </is>
